--- a/KUDIR/KUDIR/ReportTemplates/ПеречисленныйСтраховойВзнос.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/ПеречисленныйСтраховойВзнос.xlsx
@@ -77,6 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_р_."/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,13 +265,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,81 +608,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -718,54 +727,54 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="14">
         <f>J5-K5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="14">
         <f t="shared" ref="M6:M7" si="0">J6-K6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -774,50 +783,50 @@
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="15">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="15">
         <f t="shared" ref="C8:M8" si="1">SUM(C5:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -826,104 +835,104 @@
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="15">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="15">
         <f t="shared" ref="C9:M9" si="2">C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="14">
         <f>J10-K10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="14">
         <f t="shared" ref="M11:M12" si="3">J11-K11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -932,50 +941,50 @@
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="15">
         <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="15">
         <f t="shared" ref="C13:M13" si="4">SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -984,104 +993,104 @@
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="15">
         <f>B9+B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:M14" si="5">C9+C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="14">
         <f>J15-K15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="14">
         <f t="shared" ref="M16:M17" si="6">J16-K16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1090,50 +1099,50 @@
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="14">
         <f>SUM(B15:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="14">
         <f t="shared" ref="C18:M18" si="7">SUM(C15:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1142,104 +1151,104 @@
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="14">
         <f>B18+B14</f>
         <v>0</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:M19" si="8">C18+C14</f>
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="14">
         <f>J20-K20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="14">
         <f t="shared" ref="M21:M22" si="9">J21-K21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -1248,50 +1257,50 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="15">
         <f>SUM(B20:B22)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="15">
         <f t="shared" ref="C23:M23" si="10">SUM(C20:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -1300,50 +1309,50 @@
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="14">
         <f>B23+B19</f>
         <v>0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="14">
         <f t="shared" ref="C24:M24" si="11">C23+C19</f>
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
